--- a/inst/extdata/toyFiles/FROC/frocCr1T.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr1T.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AECDFC-3477-244E-B009-393B959C215F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49925D5-7BC6-A149-BC7F-1FA3FDE02D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -74,7 +76,7 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -602,7 +604,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.39364584931814617</v>
+        <v>-0.10572270453443555</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1018,7 +1020,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
